--- a/results/kocw_강의분류.xlsx
+++ b/results/kocw_강의분류.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="775">
   <si>
     <t>대분류</t>
   </si>
@@ -799,6 +799,9 @@
     <t>체육교육학</t>
   </si>
   <si>
+    <t>컴퓨터교육학</t>
+  </si>
+  <si>
     <t>한문교육학</t>
   </si>
   <si>
@@ -946,9 +949,6 @@
     <t>체육학</t>
   </si>
   <si>
-    <t>바둑학</t>
-  </si>
-  <si>
     <t>해양스포츠학</t>
   </si>
   <si>
@@ -1774,6 +1774,9 @@
     <t>050423</t>
   </si>
   <si>
+    <t>050424</t>
+  </si>
+  <si>
     <t>050425</t>
   </si>
   <si>
@@ -1930,9 +1933,6 @@
     <t>070307</t>
   </si>
   <si>
-    <t>070308</t>
-  </si>
-  <si>
     <t>070309</t>
   </si>
   <si>
@@ -1993,346 +1993,352 @@
     <t>070799</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>219</t>
+    <t>179</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>424</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>102</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>3818</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>1222</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>142</t>
+    <t>58</t>
   </si>
   <si>
     <t>64</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>3818</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>58</t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3063,7 @@
         <v>384</v>
       </c>
       <c r="H14" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3083,7 +3089,7 @@
         <v>385</v>
       </c>
       <c r="H15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3109,7 +3115,7 @@
         <v>386</v>
       </c>
       <c r="H16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3161,7 +3167,7 @@
         <v>388</v>
       </c>
       <c r="H18" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3187,7 +3193,7 @@
         <v>389</v>
       </c>
       <c r="H19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3213,7 +3219,7 @@
         <v>390</v>
       </c>
       <c r="H20" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3239,7 +3245,7 @@
         <v>391</v>
       </c>
       <c r="H21" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3265,7 +3271,7 @@
         <v>392</v>
       </c>
       <c r="H22" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3291,7 +3297,7 @@
         <v>393</v>
       </c>
       <c r="H23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3317,7 +3323,7 @@
         <v>394</v>
       </c>
       <c r="H24" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3343,7 +3349,7 @@
         <v>395</v>
       </c>
       <c r="H25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3369,7 +3375,7 @@
         <v>396</v>
       </c>
       <c r="H26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3395,7 +3401,7 @@
         <v>397</v>
       </c>
       <c r="H27" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3421,7 +3427,7 @@
         <v>398</v>
       </c>
       <c r="H28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3447,7 +3453,7 @@
         <v>399</v>
       </c>
       <c r="H29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3473,7 +3479,7 @@
         <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3499,7 +3505,7 @@
         <v>401</v>
       </c>
       <c r="H31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3551,7 +3557,7 @@
         <v>403</v>
       </c>
       <c r="H33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3577,7 +3583,7 @@
         <v>404</v>
       </c>
       <c r="H34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3603,7 +3609,7 @@
         <v>405</v>
       </c>
       <c r="H35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3629,7 +3635,7 @@
         <v>406</v>
       </c>
       <c r="H36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3655,7 +3661,7 @@
         <v>407</v>
       </c>
       <c r="H37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3681,7 +3687,7 @@
         <v>408</v>
       </c>
       <c r="H38" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3707,7 +3713,7 @@
         <v>409</v>
       </c>
       <c r="H39" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3733,7 +3739,7 @@
         <v>410</v>
       </c>
       <c r="H40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3759,7 +3765,7 @@
         <v>411</v>
       </c>
       <c r="H41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3785,7 +3791,7 @@
         <v>412</v>
       </c>
       <c r="H42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3811,7 +3817,7 @@
         <v>413</v>
       </c>
       <c r="H43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3837,7 +3843,7 @@
         <v>414</v>
       </c>
       <c r="H44" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3863,7 +3869,7 @@
         <v>415</v>
       </c>
       <c r="H45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3889,7 +3895,7 @@
         <v>416</v>
       </c>
       <c r="H46" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3915,7 +3921,7 @@
         <v>417</v>
       </c>
       <c r="H47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3941,7 +3947,7 @@
         <v>418</v>
       </c>
       <c r="H48" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3993,7 +3999,7 @@
         <v>420</v>
       </c>
       <c r="H50" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4019,7 +4025,7 @@
         <v>421</v>
       </c>
       <c r="H51" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4045,7 +4051,7 @@
         <v>422</v>
       </c>
       <c r="H52" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4071,7 +4077,7 @@
         <v>423</v>
       </c>
       <c r="H53" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4097,7 +4103,7 @@
         <v>424</v>
       </c>
       <c r="H54" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4123,7 +4129,7 @@
         <v>425</v>
       </c>
       <c r="H55" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4149,7 +4155,7 @@
         <v>426</v>
       </c>
       <c r="H56" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4175,7 +4181,7 @@
         <v>427</v>
       </c>
       <c r="H57" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4201,7 +4207,7 @@
         <v>428</v>
       </c>
       <c r="H58" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4227,7 +4233,7 @@
         <v>429</v>
       </c>
       <c r="H59" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4253,7 +4259,7 @@
         <v>430</v>
       </c>
       <c r="H60" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4279,7 +4285,7 @@
         <v>431</v>
       </c>
       <c r="H61" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4305,7 +4311,7 @@
         <v>432</v>
       </c>
       <c r="H62" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4331,7 +4337,7 @@
         <v>433</v>
       </c>
       <c r="H63" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4357,7 +4363,7 @@
         <v>434</v>
       </c>
       <c r="H64" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4383,7 +4389,7 @@
         <v>435</v>
       </c>
       <c r="H65" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4409,7 +4415,7 @@
         <v>436</v>
       </c>
       <c r="H66" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4435,7 +4441,7 @@
         <v>437</v>
       </c>
       <c r="H67" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4461,7 +4467,7 @@
         <v>438</v>
       </c>
       <c r="H68" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4487,7 +4493,7 @@
         <v>439</v>
       </c>
       <c r="H69" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4513,7 +4519,7 @@
         <v>440</v>
       </c>
       <c r="H70" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4539,7 +4545,7 @@
         <v>441</v>
       </c>
       <c r="H71" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4565,7 +4571,7 @@
         <v>442</v>
       </c>
       <c r="H72" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4591,7 +4597,7 @@
         <v>443</v>
       </c>
       <c r="H73" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4617,7 +4623,7 @@
         <v>444</v>
       </c>
       <c r="H74" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4643,7 +4649,7 @@
         <v>445</v>
       </c>
       <c r="H75" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4669,7 +4675,7 @@
         <v>446</v>
       </c>
       <c r="H76" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4695,7 +4701,7 @@
         <v>447</v>
       </c>
       <c r="H77" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4721,7 +4727,7 @@
         <v>448</v>
       </c>
       <c r="H78" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4747,7 +4753,7 @@
         <v>449</v>
       </c>
       <c r="H79" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4773,7 +4779,7 @@
         <v>450</v>
       </c>
       <c r="H80" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4799,7 +4805,7 @@
         <v>451</v>
       </c>
       <c r="H81" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4825,7 +4831,7 @@
         <v>452</v>
       </c>
       <c r="H82" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4851,7 +4857,7 @@
         <v>453</v>
       </c>
       <c r="H83" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4877,7 +4883,7 @@
         <v>454</v>
       </c>
       <c r="H84" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4903,7 +4909,7 @@
         <v>455</v>
       </c>
       <c r="H85" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4929,7 +4935,7 @@
         <v>456</v>
       </c>
       <c r="H86" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4955,7 +4961,7 @@
         <v>457</v>
       </c>
       <c r="H87" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4981,7 +4987,7 @@
         <v>458</v>
       </c>
       <c r="H88" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5007,7 +5013,7 @@
         <v>459</v>
       </c>
       <c r="H89" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5033,7 +5039,7 @@
         <v>460</v>
       </c>
       <c r="H90" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5059,7 +5065,7 @@
         <v>461</v>
       </c>
       <c r="H91" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5085,7 +5091,7 @@
         <v>462</v>
       </c>
       <c r="H92" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5111,7 +5117,7 @@
         <v>463</v>
       </c>
       <c r="H93" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5189,7 +5195,7 @@
         <v>466</v>
       </c>
       <c r="H96" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5215,7 +5221,7 @@
         <v>467</v>
       </c>
       <c r="H97" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5241,7 +5247,7 @@
         <v>468</v>
       </c>
       <c r="H98" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5267,7 +5273,7 @@
         <v>469</v>
       </c>
       <c r="H99" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5293,7 +5299,7 @@
         <v>470</v>
       </c>
       <c r="H100" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5319,7 +5325,7 @@
         <v>471</v>
       </c>
       <c r="H101" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5345,7 +5351,7 @@
         <v>472</v>
       </c>
       <c r="H102" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5371,7 +5377,7 @@
         <v>473</v>
       </c>
       <c r="H103" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5423,7 +5429,7 @@
         <v>475</v>
       </c>
       <c r="H105" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5449,7 +5455,7 @@
         <v>476</v>
       </c>
       <c r="H106" t="s">
-        <v>716</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5475,7 +5481,7 @@
         <v>477</v>
       </c>
       <c r="H107" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5501,7 +5507,7 @@
         <v>478</v>
       </c>
       <c r="H108" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5527,7 +5533,7 @@
         <v>479</v>
       </c>
       <c r="H109" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5553,7 +5559,7 @@
         <v>480</v>
       </c>
       <c r="H110" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5605,7 +5611,7 @@
         <v>482</v>
       </c>
       <c r="H112" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5631,7 +5637,7 @@
         <v>483</v>
       </c>
       <c r="H113" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5657,7 +5663,7 @@
         <v>484</v>
       </c>
       <c r="H114" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5683,7 +5689,7 @@
         <v>485</v>
       </c>
       <c r="H115" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5709,7 +5715,7 @@
         <v>486</v>
       </c>
       <c r="H116" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5735,7 +5741,7 @@
         <v>487</v>
       </c>
       <c r="H117" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5761,7 +5767,7 @@
         <v>488</v>
       </c>
       <c r="H118" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5787,7 +5793,7 @@
         <v>489</v>
       </c>
       <c r="H119" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5813,7 +5819,7 @@
         <v>490</v>
       </c>
       <c r="H120" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5839,7 +5845,7 @@
         <v>491</v>
       </c>
       <c r="H121" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5865,7 +5871,7 @@
         <v>492</v>
       </c>
       <c r="H122" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5891,7 +5897,7 @@
         <v>493</v>
       </c>
       <c r="H123" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5917,7 +5923,7 @@
         <v>494</v>
       </c>
       <c r="H124" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5943,7 +5949,7 @@
         <v>495</v>
       </c>
       <c r="H125" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5969,7 +5975,7 @@
         <v>496</v>
       </c>
       <c r="H126" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5995,7 +6001,7 @@
         <v>497</v>
       </c>
       <c r="H127" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6021,7 +6027,7 @@
         <v>498</v>
       </c>
       <c r="H128" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6047,7 +6053,7 @@
         <v>499</v>
       </c>
       <c r="H129" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6073,7 +6079,7 @@
         <v>500</v>
       </c>
       <c r="H130" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6099,7 +6105,7 @@
         <v>501</v>
       </c>
       <c r="H131" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6125,7 +6131,7 @@
         <v>502</v>
       </c>
       <c r="H132" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6151,7 +6157,7 @@
         <v>503</v>
       </c>
       <c r="H133" t="s">
-        <v>739</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6177,7 +6183,7 @@
         <v>504</v>
       </c>
       <c r="H134" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6203,7 +6209,7 @@
         <v>505</v>
       </c>
       <c r="H135" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6229,7 +6235,7 @@
         <v>506</v>
       </c>
       <c r="H136" t="s">
-        <v>680</v>
+        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6255,7 +6261,7 @@
         <v>507</v>
       </c>
       <c r="H137" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6281,7 +6287,7 @@
         <v>508</v>
       </c>
       <c r="H138" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6307,7 +6313,7 @@
         <v>509</v>
       </c>
       <c r="H139" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6333,7 +6339,7 @@
         <v>510</v>
       </c>
       <c r="H140" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6359,7 +6365,7 @@
         <v>511</v>
       </c>
       <c r="H141" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6385,7 +6391,7 @@
         <v>512</v>
       </c>
       <c r="H142" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6411,7 +6417,7 @@
         <v>513</v>
       </c>
       <c r="H143" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6437,7 +6443,7 @@
         <v>514</v>
       </c>
       <c r="H144" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6463,7 +6469,7 @@
         <v>515</v>
       </c>
       <c r="H145" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6489,7 +6495,7 @@
         <v>516</v>
       </c>
       <c r="H146" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6515,7 +6521,7 @@
         <v>517</v>
       </c>
       <c r="H147" t="s">
-        <v>739</v>
+        <v>691</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6541,7 +6547,7 @@
         <v>518</v>
       </c>
       <c r="H148" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6567,7 +6573,7 @@
         <v>519</v>
       </c>
       <c r="H149" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6593,7 +6599,7 @@
         <v>520</v>
       </c>
       <c r="H150" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6645,7 +6651,7 @@
         <v>522</v>
       </c>
       <c r="H152" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6671,7 +6677,7 @@
         <v>523</v>
       </c>
       <c r="H153" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6697,7 +6703,7 @@
         <v>524</v>
       </c>
       <c r="H154" t="s">
-        <v>745</v>
+        <v>671</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6749,7 +6755,7 @@
         <v>526</v>
       </c>
       <c r="H156" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6775,7 +6781,7 @@
         <v>527</v>
       </c>
       <c r="H157" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6801,7 +6807,7 @@
         <v>528</v>
       </c>
       <c r="H158" t="s">
-        <v>746</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6827,7 +6833,7 @@
         <v>529</v>
       </c>
       <c r="H159" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6853,7 +6859,7 @@
         <v>530</v>
       </c>
       <c r="H160" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6879,7 +6885,7 @@
         <v>531</v>
       </c>
       <c r="H161" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6905,7 +6911,7 @@
         <v>532</v>
       </c>
       <c r="H162" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6931,7 +6937,7 @@
         <v>533</v>
       </c>
       <c r="H163" t="s">
-        <v>674</v>
+        <v>725</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6957,7 +6963,7 @@
         <v>534</v>
       </c>
       <c r="H164" t="s">
-        <v>677</v>
+        <v>749</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6983,7 +6989,7 @@
         <v>535</v>
       </c>
       <c r="H165" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7009,7 +7015,7 @@
         <v>536</v>
       </c>
       <c r="H166" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7061,7 +7067,7 @@
         <v>538</v>
       </c>
       <c r="H168" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7113,7 +7119,7 @@
         <v>540</v>
       </c>
       <c r="H170" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7139,7 +7145,7 @@
         <v>541</v>
       </c>
       <c r="H171" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7165,7 +7171,7 @@
         <v>542</v>
       </c>
       <c r="H172" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7191,7 +7197,7 @@
         <v>543</v>
       </c>
       <c r="H173" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7217,7 +7223,7 @@
         <v>544</v>
       </c>
       <c r="H174" t="s">
-        <v>682</v>
+        <v>753</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7243,7 +7249,7 @@
         <v>545</v>
       </c>
       <c r="H175" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7269,7 +7275,7 @@
         <v>546</v>
       </c>
       <c r="H176" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7295,7 +7301,7 @@
         <v>547</v>
       </c>
       <c r="H177" t="s">
-        <v>669</v>
+        <v>754</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7321,7 +7327,7 @@
         <v>548</v>
       </c>
       <c r="H178" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7347,7 +7353,7 @@
         <v>549</v>
       </c>
       <c r="H179" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7373,7 +7379,7 @@
         <v>550</v>
       </c>
       <c r="H180" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7399,7 +7405,7 @@
         <v>551</v>
       </c>
       <c r="H181" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7425,7 +7431,7 @@
         <v>552</v>
       </c>
       <c r="H182" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7451,7 +7457,7 @@
         <v>553</v>
       </c>
       <c r="H183" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7477,7 +7483,7 @@
         <v>554</v>
       </c>
       <c r="H184" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7503,7 +7509,7 @@
         <v>555</v>
       </c>
       <c r="H185" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7529,7 +7535,7 @@
         <v>556</v>
       </c>
       <c r="H186" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7555,7 +7561,7 @@
         <v>557</v>
       </c>
       <c r="H187" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7581,7 +7587,7 @@
         <v>558</v>
       </c>
       <c r="H188" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7607,7 +7613,7 @@
         <v>559</v>
       </c>
       <c r="H189" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7633,7 +7639,7 @@
         <v>560</v>
       </c>
       <c r="H190" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7659,7 +7665,7 @@
         <v>561</v>
       </c>
       <c r="H191" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7685,7 +7691,7 @@
         <v>562</v>
       </c>
       <c r="H192" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7711,7 +7717,7 @@
         <v>563</v>
       </c>
       <c r="H193" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7737,7 +7743,7 @@
         <v>564</v>
       </c>
       <c r="H194" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7763,7 +7769,7 @@
         <v>565</v>
       </c>
       <c r="H195" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7789,7 +7795,7 @@
         <v>566</v>
       </c>
       <c r="H196" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7815,7 +7821,7 @@
         <v>567</v>
       </c>
       <c r="H197" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7841,7 +7847,7 @@
         <v>568</v>
       </c>
       <c r="H198" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7893,7 +7899,7 @@
         <v>570</v>
       </c>
       <c r="H200" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7919,7 +7925,7 @@
         <v>571</v>
       </c>
       <c r="H201" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7945,7 +7951,7 @@
         <v>572</v>
       </c>
       <c r="H202" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7971,7 +7977,7 @@
         <v>573</v>
       </c>
       <c r="H203" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8023,7 +8029,7 @@
         <v>575</v>
       </c>
       <c r="H205" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8075,7 +8081,7 @@
         <v>577</v>
       </c>
       <c r="H207" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8101,7 +8107,7 @@
         <v>578</v>
       </c>
       <c r="H208" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8127,7 +8133,7 @@
         <v>579</v>
       </c>
       <c r="H209" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8205,7 +8211,7 @@
         <v>582</v>
       </c>
       <c r="H212" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8231,7 +8237,7 @@
         <v>583</v>
       </c>
       <c r="H213" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8257,7 +8263,7 @@
         <v>584</v>
       </c>
       <c r="H214" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8283,7 +8289,7 @@
         <v>585</v>
       </c>
       <c r="H215" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8309,7 +8315,7 @@
         <v>586</v>
       </c>
       <c r="H216" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8335,7 +8341,7 @@
         <v>587</v>
       </c>
       <c r="H217" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8361,7 +8367,7 @@
         <v>588</v>
       </c>
       <c r="H218" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8372,7 +8378,7 @@
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D219" t="s">
         <v>264</v>
@@ -8381,13 +8387,13 @@
         <v>334</v>
       </c>
       <c r="F219" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G219" t="s">
         <v>589</v>
       </c>
       <c r="H219" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8413,7 +8419,7 @@
         <v>590</v>
       </c>
       <c r="H220" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8427,7 +8433,7 @@
         <v>38</v>
       </c>
       <c r="D221" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="E221" t="s">
         <v>334</v>
@@ -8439,7 +8445,7 @@
         <v>591</v>
       </c>
       <c r="H221" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8453,7 +8459,7 @@
         <v>38</v>
       </c>
       <c r="D222" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="E222" t="s">
         <v>334</v>
@@ -8465,7 +8471,7 @@
         <v>592</v>
       </c>
       <c r="H222" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8491,7 +8497,7 @@
         <v>593</v>
       </c>
       <c r="H223" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8517,7 +8523,7 @@
         <v>594</v>
       </c>
       <c r="H224" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8531,7 +8537,7 @@
         <v>38</v>
       </c>
       <c r="D225" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="E225" t="s">
         <v>334</v>
@@ -8543,7 +8549,7 @@
         <v>595</v>
       </c>
       <c r="H225" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8551,25 +8557,25 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D226" t="s">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="E226" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F226" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G226" t="s">
         <v>596</v>
       </c>
       <c r="H226" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8595,7 +8601,7 @@
         <v>597</v>
       </c>
       <c r="H227" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8621,7 +8627,7 @@
         <v>598</v>
       </c>
       <c r="H228" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8647,7 +8653,7 @@
         <v>599</v>
       </c>
       <c r="H229" t="s">
-        <v>765</v>
+        <v>669</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8658,7 +8664,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D230" t="s">
         <v>273</v>
@@ -8667,13 +8673,13 @@
         <v>335</v>
       </c>
       <c r="F230" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G230" t="s">
         <v>600</v>
       </c>
       <c r="H230" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8684,22 +8690,22 @@
         <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D231" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="E231" t="s">
         <v>335</v>
       </c>
       <c r="F231" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G231" t="s">
         <v>601</v>
       </c>
       <c r="H231" t="s">
-        <v>681</v>
+        <v>768</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8713,7 +8719,7 @@
         <v>41</v>
       </c>
       <c r="D232" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="E232" t="s">
         <v>335</v>
@@ -8725,7 +8731,7 @@
         <v>602</v>
       </c>
       <c r="H232" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8751,7 +8757,7 @@
         <v>603</v>
       </c>
       <c r="H233" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8762,7 +8768,7 @@
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D234" t="s">
         <v>276</v>
@@ -8771,13 +8777,13 @@
         <v>335</v>
       </c>
       <c r="F234" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G234" t="s">
         <v>604</v>
       </c>
       <c r="H234" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8803,7 +8809,7 @@
         <v>605</v>
       </c>
       <c r="H235" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8829,7 +8835,7 @@
         <v>606</v>
       </c>
       <c r="H236" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8855,7 +8861,7 @@
         <v>607</v>
       </c>
       <c r="H237" t="s">
-        <v>670</v>
+        <v>770</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8881,7 +8887,7 @@
         <v>608</v>
       </c>
       <c r="H238" t="s">
-        <v>768</v>
+        <v>683</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8907,7 +8913,7 @@
         <v>609</v>
       </c>
       <c r="H239" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8933,7 +8939,7 @@
         <v>610</v>
       </c>
       <c r="H240" t="s">
-        <v>708</v>
+        <v>749</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8941,25 +8947,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D241" t="s">
         <v>283</v>
       </c>
       <c r="E241" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F241" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G241" t="s">
         <v>611</v>
       </c>
       <c r="H241" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8985,7 +8991,7 @@
         <v>612</v>
       </c>
       <c r="H242" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9011,7 +9017,7 @@
         <v>613</v>
       </c>
       <c r="H243" t="s">
-        <v>732</v>
+        <v>663</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9037,7 +9043,7 @@
         <v>614</v>
       </c>
       <c r="H244" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9063,7 +9069,7 @@
         <v>615</v>
       </c>
       <c r="H245" t="s">
-        <v>729</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9089,7 +9095,7 @@
         <v>616</v>
       </c>
       <c r="H246" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9115,7 +9121,7 @@
         <v>617</v>
       </c>
       <c r="H247" t="s">
-        <v>716</v>
+        <v>772</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9141,7 +9147,7 @@
         <v>618</v>
       </c>
       <c r="H248" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9167,7 +9173,7 @@
         <v>619</v>
       </c>
       <c r="H249" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9193,7 +9199,7 @@
         <v>620</v>
       </c>
       <c r="H250" t="s">
-        <v>674</v>
+        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9204,7 +9210,7 @@
         <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D251" t="s">
         <v>293</v>
@@ -9213,13 +9219,13 @@
         <v>336</v>
       </c>
       <c r="F251" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G251" t="s">
         <v>621</v>
       </c>
       <c r="H251" t="s">
-        <v>671</v>
+        <v>725</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9245,7 +9251,7 @@
         <v>622</v>
       </c>
       <c r="H252" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9323,7 +9329,7 @@
         <v>625</v>
       </c>
       <c r="H255" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9349,7 +9355,7 @@
         <v>626</v>
       </c>
       <c r="H256" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9375,7 +9381,7 @@
         <v>627</v>
       </c>
       <c r="H257" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9401,7 +9407,7 @@
         <v>628</v>
       </c>
       <c r="H258" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9427,7 +9433,7 @@
         <v>629</v>
       </c>
       <c r="H259" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9453,7 +9459,7 @@
         <v>630</v>
       </c>
       <c r="H260" t="s">
-        <v>720</v>
+        <v>665</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9464,7 +9470,7 @@
         <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D261" t="s">
         <v>303</v>
@@ -9473,13 +9479,13 @@
         <v>336</v>
       </c>
       <c r="F261" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G261" t="s">
         <v>631</v>
       </c>
       <c r="H261" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9505,7 +9511,7 @@
         <v>632</v>
       </c>
       <c r="H262" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9531,7 +9537,7 @@
         <v>633</v>
       </c>
       <c r="H263" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9557,7 +9563,7 @@
         <v>634</v>
       </c>
       <c r="H264" t="s">
-        <v>714</v>
+        <v>772</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9583,7 +9589,7 @@
         <v>635</v>
       </c>
       <c r="H265" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9609,7 +9615,7 @@
         <v>636</v>
       </c>
       <c r="H266" t="s">
-        <v>770</v>
+        <v>725</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9635,7 +9641,7 @@
         <v>637</v>
       </c>
       <c r="H267" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9661,7 +9667,7 @@
         <v>638</v>
       </c>
       <c r="H268" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9713,7 +9719,7 @@
         <v>640</v>
       </c>
       <c r="H270" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9739,7 +9745,7 @@
         <v>641</v>
       </c>
       <c r="H271" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9791,7 +9797,7 @@
         <v>643</v>
       </c>
       <c r="H273" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9817,7 +9823,7 @@
         <v>644</v>
       </c>
       <c r="H274" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9843,7 +9849,7 @@
         <v>645</v>
       </c>
       <c r="H275" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9869,7 +9875,7 @@
         <v>646</v>
       </c>
       <c r="H276" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9895,7 +9901,7 @@
         <v>647</v>
       </c>
       <c r="H277" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9921,7 +9927,7 @@
         <v>648</v>
       </c>
       <c r="H278" t="s">
-        <v>737</v>
+        <v>672</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9947,7 +9953,7 @@
         <v>649</v>
       </c>
       <c r="H279" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9973,7 +9979,7 @@
         <v>650</v>
       </c>
       <c r="H280" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9999,7 +10005,7 @@
         <v>651</v>
       </c>
       <c r="H281" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10051,7 +10057,7 @@
         <v>653</v>
       </c>
       <c r="H283" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10077,7 +10083,7 @@
         <v>654</v>
       </c>
       <c r="H284" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10103,7 +10109,7 @@
         <v>655</v>
       </c>
       <c r="H285" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10129,7 +10135,7 @@
         <v>656</v>
       </c>
       <c r="H286" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10155,7 +10161,7 @@
         <v>657</v>
       </c>
       <c r="H287" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
     </row>
     <row r="288" spans="1:8">
